--- a/Shablon/TDS2014 old.xlsx
+++ b/Shablon/TDS2014 old.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="171">
   <si>
     <t>5 В/дел</t>
   </si>
@@ -1088,6 +1088,15 @@
   </si>
   <si>
     <t>ti_5</t>
+  </si>
+  <si>
+    <t>_temp</t>
+  </si>
+  <si>
+    <t>_hum</t>
+  </si>
+  <si>
+    <t>_pres</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1351,63 +1360,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1746,53 +1758,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" s="14" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1824,17 +1836,17 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1861,90 +1873,96 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="28" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
@@ -1955,17 +1973,17 @@
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2020,14 +2038,14 @@
     </row>
     <row r="26" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
@@ -2061,19 +2079,19 @@
       <c r="A30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2081,163 +2099,163 @@
       <c r="A31" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="26"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="26"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="26"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2245,33 +2263,33 @@
       <c r="A40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
@@ -2305,7 +2323,7 @@
       <c r="B45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="26" t="s">
         <v>163</v>
       </c>
       <c r="D45" s="4"/>
@@ -2320,7 +2338,7 @@
       <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="26" t="s">
         <v>164</v>
       </c>
       <c r="D46" s="4"/>
@@ -2335,7 +2353,7 @@
       <c r="B47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="26" t="s">
         <v>165</v>
       </c>
       <c r="D47" s="4"/>
@@ -2350,7 +2368,7 @@
       <c r="B48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="26" t="s">
         <v>166</v>
       </c>
       <c r="D48" s="4"/>
@@ -2365,7 +2383,7 @@
       <c r="B49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="26" t="s">
         <v>167</v>
       </c>
       <c r="D49" s="4"/>
@@ -2404,19 +2422,19 @@
       <c r="A54" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="27" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2424,181 +2442,181 @@
       <c r="A55" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="44" t="s">
+      <c r="E55" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="34"/>
+      <c r="F55" s="28"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="44" t="s">
+      <c r="E56" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="34"/>
+      <c r="F56" s="28"/>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="34"/>
+      <c r="F57" s="28"/>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E58" s="44" t="s">
+      <c r="E58" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="34"/>
+      <c r="F58" s="28"/>
     </row>
     <row r="59" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E59" s="44" t="s">
+      <c r="E59" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="34"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E60" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="34"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="44" t="s">
+      <c r="E61" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="34"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="44" t="s">
+      <c r="E62" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="F62" s="34"/>
+      <c r="F62" s="28"/>
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E63" s="44" t="s">
+      <c r="E63" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="F63" s="34"/>
+      <c r="F63" s="28"/>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F64" s="35"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="1:8" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
@@ -2738,11 +2756,16 @@
     <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F54:F64"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
@@ -2756,16 +2779,11 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F54:F64"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
